--- a/DesignerConfigs/Datas/Level.xlsx
+++ b/DesignerConfigs/Datas/Level.xlsx
@@ -26,8 +26,135 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>格式：
+移动方向1,1的移动目标最大位置,1的起始坐标x,1的起始坐标y,1的最终目标x,1的最终目标y/移动方向2,2的移动目标最大位置,2的起始坐标x,2的起始坐标y,2的最终目标x,2的最终目标y...
+起始坐标：
+左下角
+移动方向数字枚举：
+1：←
+2：→
+3：↑
+4：↓</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>起始坐标：
+左下角</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+起始坐标：
+左下角
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+起始坐标：
+左下角
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+起始坐标：
+左下角
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>间隔/延迟时间</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>##var</t>
   </si>
@@ -35,13 +162,28 @@
     <t>sn</t>
   </si>
   <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>moveDic</t>
-  </si>
-  <si>
-    <t>specialState</t>
+    <t>LevelSize</t>
+  </si>
+  <si>
+    <t>GoodKinds</t>
+  </si>
+  <si>
+    <t>MoveDic</t>
+  </si>
+  <si>
+    <t>HiddleGood_Move</t>
+  </si>
+  <si>
+    <t>HiddleGood_Stay</t>
+  </si>
+  <si>
+    <t>Obstacle_Move</t>
+  </si>
+  <si>
+    <t>Obstacle_Stay</t>
+  </si>
+  <si>
+    <t>hiddleGood_Delay</t>
   </si>
   <si>
     <t>##type</t>
@@ -65,43 +207,61 @@
     <t>物品总数</t>
   </si>
   <si>
+    <t>物品种类数量</t>
+  </si>
+  <si>
     <t>物品移动方向</t>
   </si>
   <si>
-    <t>特殊状态的物品</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Up</t>
-  </si>
-  <si>
-    <t>Left</t>
-  </si>
-  <si>
-    <t>Right</t>
-  </si>
-  <si>
-    <t>Down</t>
-  </si>
-  <si>
-    <t>LR_Away</t>
-  </si>
-  <si>
-    <t>LR_Closer</t>
-  </si>
-  <si>
-    <t>UD_Away</t>
-  </si>
-  <si>
-    <t>UD_Closer</t>
-  </si>
-  <si>
-    <t>(6,1,1)/(6,2,1)/(7,1,1)/(7,2,1)/(6,5,1)/(6,6,1)/(7,5,1)/(7,6,1)</t>
-  </si>
-  <si>
-    <t>(5,2,1)/(5,3,1)/(5,4,1)/(5,5,1)/(6,2,1)/(6,5,1)/(7,2,1)/(7,5,1)/(8,2,1)/(8,3,1)/(8,4,1)/(8,5,1)</t>
+    <t>可移动的隐藏物的位置</t>
+  </si>
+  <si>
+    <t>不移动的隐藏物的位置</t>
+  </si>
+  <si>
+    <t>可移动的障碍物的位置</t>
+  </si>
+  <si>
+    <t>不移动的障碍物的位置</t>
+  </si>
+  <si>
+    <t>出现延迟隐藏的时间</t>
+  </si>
+  <si>
+    <t>8,14</t>
+  </si>
+  <si>
+    <t>3,14,1,1,8,14</t>
+  </si>
+  <si>
+    <t>1,8,1,1,8,14</t>
+  </si>
+  <si>
+    <t>2,1,1,1,8,14</t>
+  </si>
+  <si>
+    <t>4,1,1,1,8,14</t>
+  </si>
+  <si>
+    <t>3,14,1,7,8,14/4,1,1,1,7,8</t>
+  </si>
+  <si>
+    <t>4,8,1,7,8,14/3,7,1,1,7,8</t>
+  </si>
+  <si>
+    <t>1,1,1,1,4,14/2,8,5,1,8,14</t>
+  </si>
+  <si>
+    <t>2,4,1,1,4,14/1,5,5,1,8,14</t>
+  </si>
+  <si>
+    <t>2,7/3,7/6,7/7,7/2,8/3,8/6,8/7,8</t>
+  </si>
+  <si>
+    <t>2,8,1,1,8,14</t>
+  </si>
+  <si>
+    <t>3,6/4,6/5,6/6,6/3,7/6,7/3,8/6,8/3,9/4,9/5,9/6,9</t>
   </si>
 </sst>
 </file>
@@ -114,7 +274,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,8 +433,19 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,12 +479,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,85 +828,85 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1290,19 +1455,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="14.125" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="29.125" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="20.125" customWidth="1"/>
+    <col min="8" max="8" width="22.125" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1318,8 +1488,23 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1327,197 +1512,263 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7">
-        <v>112</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:5">
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8">
-        <v>112</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:5">
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9">
-        <v>112</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:5">
       <c r="B10">
         <v>4</v>
       </c>
-      <c r="C10">
-        <v>112</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:5">
       <c r="B11">
         <v>5</v>
       </c>
-      <c r="C11">
-        <v>112</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:5">
       <c r="B12">
         <v>6</v>
       </c>
-      <c r="C12">
-        <v>112</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:5">
       <c r="B13">
         <v>7</v>
       </c>
-      <c r="C13">
-        <v>112</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:5">
       <c r="B14">
         <v>8</v>
       </c>
-      <c r="C14">
-        <v>112</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:5">
       <c r="B15">
         <v>9</v>
       </c>
-      <c r="C15">
-        <v>112</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:6">
       <c r="B16">
         <v>10</v>
       </c>
-      <c r="C16">
-        <v>112</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s">
-        <v>23</v>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:6">
       <c r="B17">
         <v>11</v>
       </c>
-      <c r="C17">
-        <v>112</v>
-      </c>
-      <c r="D17" t="s">
-        <v>16</v>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D17 D7:D16">
-      <formula1>"None,Up,Down,Left,Right,LR_Away,LR_Closer,UD_Away,UD_Closer"</formula1>
-    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1048576 E6:E17"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/DesignerConfigs/Datas/Level.xlsx
+++ b/DesignerConfigs/Datas/Level.xlsx
@@ -228,7 +228,7 @@
     <t>出现延迟隐藏的时间</t>
   </si>
   <si>
-    <t>8,14</t>
+    <t>8,12</t>
   </si>
   <si>
     <t>3,14,1,1,8,14</t>
@@ -434,12 +434,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1458,7 +1458,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/DesignerConfigs/Datas/Level.xlsx
+++ b/DesignerConfigs/Datas/Level.xlsx
@@ -40,15 +40,15 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>格式：
-移动方向1,1的移动目标最大位置,1的起始坐标x,1的起始坐标y,1的最终目标x,1的最终目标y/移动方向2,2的移动目标最大位置,2的起始坐标x,2的起始坐标y,2的最终目标x,2的最终目标y...
-起始坐标：
-左下角
-移动方向数字枚举：
-1：←
-2：→
-3：↑
-4：↓</t>
+          <t>移动方向数字枚举：
+1：↑
+2：↓
+3：←
+4：→
+5：↑↓（远离）
+6：↑↓（聚合）
+7：←→（远离）
+8：←→（聚合）</t>
         </r>
       </text>
     </comment>
@@ -154,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>##var</t>
   </si>
@@ -231,34 +231,7 @@
     <t>8,12</t>
   </si>
   <si>
-    <t>3,14,1,1,8,14</t>
-  </si>
-  <si>
-    <t>1,8,1,1,8,14</t>
-  </si>
-  <si>
-    <t>2,1,1,1,8,14</t>
-  </si>
-  <si>
-    <t>4,1,1,1,8,14</t>
-  </si>
-  <si>
-    <t>3,14,1,7,8,14/4,1,1,1,7,8</t>
-  </si>
-  <si>
-    <t>4,8,1,7,8,14/3,7,1,1,7,8</t>
-  </si>
-  <si>
-    <t>1,1,1,1,4,14/2,8,5,1,8,14</t>
-  </si>
-  <si>
-    <t>2,4,1,1,4,14/1,5,5,1,8,14</t>
-  </si>
-  <si>
     <t>2,7/3,7/6,7/7,7/2,8/3,8/6,8/7,8</t>
-  </si>
-  <si>
-    <t>2,8,1,1,8,14</t>
   </si>
   <si>
     <t>3,6/4,6/5,6/6,6/3,7/6,7/3,8/6,8/3,9/4,9/5,9/6,9</t>
@@ -434,12 +407,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1458,7 +1431,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1532,7 +1505,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
@@ -1598,15 +1571,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:2">
       <c r="B6">
         <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -1630,8 +1597,8 @@
       <c r="D8">
         <v>24</v>
       </c>
-      <c r="E8" t="s">
-        <v>25</v>
+      <c r="E8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -1644,8 +1611,8 @@
       <c r="D9">
         <v>24</v>
       </c>
-      <c r="E9" t="s">
-        <v>26</v>
+      <c r="E9">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -1658,8 +1625,8 @@
       <c r="D10">
         <v>24</v>
       </c>
-      <c r="E10" t="s">
-        <v>27</v>
+      <c r="E10">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -1672,8 +1639,8 @@
       <c r="D11">
         <v>24</v>
       </c>
-      <c r="E11" t="s">
-        <v>28</v>
+      <c r="E11">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -1686,8 +1653,8 @@
       <c r="D12">
         <v>24</v>
       </c>
-      <c r="E12" t="s">
-        <v>29</v>
+      <c r="E12">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -1700,8 +1667,8 @@
       <c r="D13">
         <v>24</v>
       </c>
-      <c r="E13" t="s">
-        <v>30</v>
+      <c r="E13">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="2:5">
@@ -1714,8 +1681,8 @@
       <c r="D14">
         <v>24</v>
       </c>
-      <c r="E14" t="s">
-        <v>31</v>
+      <c r="E14">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="2:5">
@@ -1728,8 +1695,8 @@
       <c r="D15">
         <v>24</v>
       </c>
-      <c r="E15" t="s">
-        <v>32</v>
+      <c r="E15">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -1743,7 +1710,7 @@
         <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -1756,11 +1723,11 @@
       <c r="D17">
         <v>24</v>
       </c>
-      <c r="E17" t="s">
-        <v>34</v>
+      <c r="E17">
+        <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/Level.xlsx
+++ b/DesignerConfigs/Datas/Level.xlsx
@@ -149,12 +149,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>0：不可兑现
+1：可兑现</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>##var</t>
   </si>
@@ -186,6 +199,9 @@
     <t>hiddleGood_Delay</t>
   </si>
   <si>
+    <t>WithdrawType</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -226,6 +242,9 @@
   </si>
   <si>
     <t>出现延迟隐藏的时间</t>
+  </si>
+  <si>
+    <t>兑现类型</t>
   </si>
   <si>
     <t>8,12</t>
@@ -1163,13 +1182,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -1428,10 +1440,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1443,9 +1455,11 @@
     <col min="7" max="7" width="20.125" customWidth="1"/>
     <col min="8" max="8" width="22.125" customWidth="1"/>
     <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1476,8 +1490,11 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1490,45 +1507,49 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1538,61 +1559,77 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:11">
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>24</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:11">
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7">
         <v>24</v>
       </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:11">
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8">
         <v>24</v>
@@ -1600,13 +1637,16 @@
       <c r="E8">
         <v>1</v>
       </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:11">
       <c r="B9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9">
         <v>24</v>
@@ -1614,13 +1654,16 @@
       <c r="E9">
         <v>2</v>
       </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:11">
       <c r="B10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10">
         <v>24</v>
@@ -1628,13 +1671,16 @@
       <c r="E10">
         <v>3</v>
       </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:11">
       <c r="B11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11">
         <v>24</v>
@@ -1642,13 +1688,16 @@
       <c r="E11">
         <v>4</v>
       </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:11">
       <c r="B12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12">
         <v>24</v>
@@ -1656,13 +1705,16 @@
       <c r="E12">
         <v>5</v>
       </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:11">
       <c r="B13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13">
         <v>24</v>
@@ -1670,13 +1722,16 @@
       <c r="E13">
         <v>6</v>
       </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:11">
       <c r="B14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14">
         <v>24</v>
@@ -1684,13 +1739,16 @@
       <c r="E14">
         <v>7</v>
       </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:11">
       <c r="B15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15">
         <v>24</v>
@@ -1698,27 +1756,33 @@
       <c r="E15">
         <v>8</v>
       </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:11">
       <c r="B16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16">
         <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:11">
       <c r="B17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17">
         <v>24</v>
@@ -1727,7 +1791,10 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/Level.xlsx
+++ b/DesignerConfigs/Datas/Level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,21 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>yhc:
+0：引导关卡
+1：常规关卡</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -41,6 +55,7 @@
             <charset val="134"/>
           </rPr>
           <t>移动方向数字枚举：
+0：不移动
 1：↑
 2：↓
 3：←
@@ -52,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -62,30 +77,6 @@
           </rPr>
           <t>起始坐标：
 左下角</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-起始坐标：
-左下角
-</t>
         </r>
       </text>
     </comment>
@@ -141,6 +132,30 @@
       <text>
         <r>
           <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+起始坐标：
+左下角
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
@@ -149,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -167,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="32">
   <si>
     <t>##var</t>
   </si>
@@ -178,6 +193,9 @@
     <t>LevelSize</t>
   </si>
   <si>
+    <t>LevelType</t>
+  </si>
+  <si>
     <t>GoodKinds</t>
   </si>
   <si>
@@ -202,6 +220,9 @@
     <t>WithdrawType</t>
   </si>
   <si>
+    <t>Reward</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -248,6 +269,9 @@
   </si>
   <si>
     <t>8,12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>2,7/3,7/6,7/7,7/2,8/3,8/6,8/7,8</t>
@@ -426,12 +450,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -902,11 +926,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1440,26 +1467,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
-    <col min="4" max="4" width="29.125" customWidth="1"/>
-    <col min="5" max="5" width="21.875" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="20.125" customWidth="1"/>
-    <col min="8" max="8" width="22.125" customWidth="1"/>
-    <col min="9" max="9" width="18.125" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="15.375" customWidth="1"/>
+    <col min="3" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="29.125" customWidth="1"/>
+    <col min="6" max="6" width="21.875" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="20.125" customWidth="1"/>
+    <col min="9" max="9" width="22.125" customWidth="1"/>
+    <col min="10" max="10" width="18.125" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="15.375" customWidth="1"/>
+    <col min="13" max="13" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1493,8 +1521,14 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1508,298 +1542,371 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:13">
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6">
+        <v>28</v>
+      </c>
+      <c r="E6">
         <v>24</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1</v>
       </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:13">
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7">
+        <v>28</v>
+      </c>
+      <c r="E7">
         <v>24</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1</v>
       </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:13">
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8">
+        <v>28</v>
+      </c>
+      <c r="E8">
         <v>24</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>0</v>
       </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:13">
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9">
+        <v>28</v>
+      </c>
+      <c r="E9">
         <v>24</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>0</v>
       </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:13">
       <c r="B10">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10">
-        <v>24</v>
-      </c>
-      <c r="E10">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10">
         <v>3</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>0</v>
       </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:13">
       <c r="B11">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11">
+        <v>28</v>
+      </c>
+      <c r="E11">
         <v>24</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>4</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>0</v>
       </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:13">
       <c r="B12">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12">
+        <v>28</v>
+      </c>
+      <c r="E12">
         <v>24</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>5</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>0</v>
       </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:13">
       <c r="B13">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13">
+        <v>28</v>
+      </c>
+      <c r="E13">
         <v>24</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>6</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>0</v>
       </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:13">
       <c r="B14">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14">
+        <v>28</v>
+      </c>
+      <c r="E14">
         <v>24</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>7</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>0</v>
       </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:13">
       <c r="B15">
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15">
+        <v>28</v>
+      </c>
+      <c r="E15">
         <v>24</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>8</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>0</v>
       </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" ht="27" spans="2:13">
       <c r="B16">
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16">
+        <v>28</v>
+      </c>
+      <c r="E16">
         <v>24</v>
       </c>
-      <c r="F16" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16">
+      <c r="G16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="L16">
         <v>0</v>
       </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" ht="40.5" spans="2:13">
       <c r="B17">
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17">
+        <v>28</v>
+      </c>
+      <c r="E17">
         <v>24</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1</v>
       </c>
-      <c r="F17" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17">
+      <c r="G17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17">
         <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1048576 E6:E17"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1048576 F6:F17"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/DesignerConfigs/Datas/Level.xlsx
+++ b/DesignerConfigs/Datas/Level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
             <charset val="134"/>
           </rPr>
           <t>yhc:
-0：引导关卡
+0：固定关卡
 1：常规关卡</t>
         </r>
       </text>
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
   <si>
     <t>##var</t>
   </si>
@@ -232,6 +232,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>##group</t>
   </si>
   <si>
@@ -268,10 +271,13 @@
     <t>兑现类型</t>
   </si>
   <si>
+    <t>通关奖励</t>
+  </si>
+  <si>
+    <t>4,6</t>
+  </si>
+  <si>
     <t>8,12</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>2,7/3,7/6,7/7,7/2,8/3,8/6,8/7,8</t>
@@ -450,12 +456,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1469,8 +1475,8 @@
   <sheetPr/>
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1583,87 +1589,87 @@
         <v>14</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:13">
@@ -1671,16 +1677,22 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
       </c>
       <c r="E6">
         <v>24</v>
       </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:13">
@@ -1688,16 +1700,22 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
       </c>
       <c r="E7">
         <v>24</v>
       </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:13">
@@ -1705,7 +1723,10 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
       </c>
       <c r="E8">
         <v>24</v>
@@ -1717,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:13">
@@ -1725,7 +1746,10 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
       </c>
       <c r="E9">
         <v>24</v>
@@ -1737,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:13">
@@ -1745,10 +1769,13 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>24</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -1757,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>3</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="2:13">
@@ -1765,7 +1792,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
       </c>
       <c r="E11">
         <v>24</v>
@@ -1777,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="2:13">
@@ -1785,7 +1815,10 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
       </c>
       <c r="E12">
         <v>24</v>
@@ -1797,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="2:13">
@@ -1805,7 +1838,10 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
       </c>
       <c r="E13">
         <v>24</v>
@@ -1817,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="2:13">
@@ -1825,7 +1861,10 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
       </c>
       <c r="E14">
         <v>24</v>
@@ -1837,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>3</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="2:13">
@@ -1845,7 +1884,10 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
       </c>
       <c r="E15">
         <v>24</v>
@@ -1857,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>3</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" ht="27" spans="2:13">
@@ -1865,20 +1907,26 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
       </c>
       <c r="E16">
         <v>24</v>
       </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
       <c r="G16" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H16" s="2"/>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>3</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" ht="40.5" spans="2:13">
@@ -1886,7 +1934,10 @@
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
       </c>
       <c r="E17">
         <v>24</v>
@@ -1895,13 +1946,13 @@
         <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/Level.xlsx
+++ b/DesignerConfigs/Datas/Level.xlsx
@@ -1476,7 +1476,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F7">
         <v>0</v>

--- a/DesignerConfigs/Datas/Level.xlsx
+++ b/DesignerConfigs/Datas/Level.xlsx
@@ -41,8 +41,8 @@
             <charset val="134"/>
           </rPr>
           <t>yhc:
-0：固定关卡
-1：常规关卡</t>
+0：常规关卡
+1：固定关卡</t>
         </r>
       </text>
     </comment>
@@ -456,12 +456,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1476,7 +1476,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1726,10 +1726,10 @@
         <v>31</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1749,7 +1749,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>24</v>
@@ -1772,7 +1772,7 @@
         <v>31</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>24</v>
@@ -1795,7 +1795,7 @@
         <v>31</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>24</v>
@@ -1818,7 +1818,7 @@
         <v>31</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>24</v>
@@ -1827,7 +1827,7 @@
         <v>5</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12">
         <v>120</v>
@@ -1841,7 +1841,7 @@
         <v>31</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>24</v>
@@ -1864,7 +1864,7 @@
         <v>31</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>24</v>
@@ -1887,7 +1887,7 @@
         <v>31</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>24</v>
@@ -1910,7 +1910,7 @@
         <v>31</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>24</v>
@@ -1937,7 +1937,7 @@
         <v>31</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>24</v>

--- a/DesignerConfigs/Datas/Level.xlsx
+++ b/DesignerConfigs/Datas/Level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,54 +77,6 @@
           </rPr>
           <t>起始坐标：
 左下角</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-起始坐标：
-左下角
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-起始坐标：
-左下角
-</t>
         </r>
       </text>
     </comment>
@@ -156,6 +108,54 @@
       <text>
         <r>
           <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+起始坐标：
+左下角
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+起始坐标：
+左下角
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
@@ -164,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
   <si>
     <t>##var</t>
   </si>
@@ -202,6 +202,9 @@
     <t>MoveDic</t>
   </si>
   <si>
+    <t>FixedGridMap</t>
+  </si>
+  <si>
     <t>HiddleGood_Move</t>
   </si>
   <si>
@@ -232,6 +235,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>(map#sep=:,),string,int</t>
+  </si>
+  <si>
     <t>float</t>
   </si>
   <si>
@@ -253,6 +259,9 @@
     <t>物品移动方向</t>
   </si>
   <si>
+    <t>aa</t>
+  </si>
+  <si>
     <t>可移动的隐藏物的位置</t>
   </si>
   <si>
@@ -272,6 +281,12 @@
   </si>
   <si>
     <t>通关奖励</t>
+  </si>
+  <si>
+    <t>4,3</t>
+  </si>
+  <si>
+    <t>1_1:1,1_2:2,1_3:3,1_4:4,3_1:5,3_2:1,3_3:6,3_4:2,4_1:6,4_2:3,4_3:4,4_4:5</t>
   </si>
   <si>
     <t>4,6</t>
@@ -296,7 +311,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +322,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -482,6 +504,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -501,12 +529,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,143 +824,154 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1473,491 +1506,504 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="29.125" customWidth="1"/>
-    <col min="6" max="6" width="21.875" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="20.125" customWidth="1"/>
-    <col min="9" max="9" width="22.125" customWidth="1"/>
-    <col min="10" max="10" width="18.125" customWidth="1"/>
-    <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="15.375" customWidth="1"/>
-    <col min="13" max="13" width="17.75" customWidth="1"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="5" width="14.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.75" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:15">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" ht="54" spans="3:15">
+      <c r="C5" s="1">
+        <v>10001</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="F5" s="1">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>16</v>
+    <row r="6" spans="3:15">
+      <c r="C6" s="1">
+        <v>10002</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>18</v>
+    <row r="7" spans="3:15">
+      <c r="C7" s="1">
+        <v>10003</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="8" spans="3:15">
+      <c r="C8" s="1">
+        <v>10004</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="F8" s="1">
         <v>24</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>29</v>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>60</v>
       </c>
     </row>
-    <row r="6" spans="2:13">
-      <c r="B6">
+    <row r="9" spans="3:15">
+      <c r="C9" s="1">
+        <v>10005</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6">
+      <c r="F9" s="1">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="N9" s="1">
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="O9" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15">
+      <c r="C10" s="1">
+        <v>10006</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>24</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15">
+      <c r="C11" s="1">
+        <v>10007</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>24</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15">
+      <c r="C12" s="1">
+        <v>10008</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>24</v>
+      </c>
+      <c r="G12" s="1">
         <v>6</v>
       </c>
-      <c r="F6">
+      <c r="N12" s="1">
         <v>0</v>
       </c>
-      <c r="L6">
+      <c r="O12" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15">
+      <c r="C13" s="1">
+        <v>10009</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="M6">
-        <v>10</v>
+      <c r="F13" s="1">
+        <v>24</v>
+      </c>
+      <c r="G13" s="1">
+        <v>7</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>160</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7">
+    <row r="14" spans="3:15">
+      <c r="C14" s="1">
+        <v>10010</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>24</v>
+      </c>
+      <c r="G14" s="1">
+        <v>8</v>
+      </c>
+      <c r="N14" s="1">
         <v>0</v>
       </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="F7">
+      <c r="O14" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" ht="27" spans="3:15">
+      <c r="C15" s="1">
+        <v>10011</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>24</v>
+      </c>
+      <c r="G15" s="1">
         <v>0</v>
       </c>
-      <c r="L7">
+      <c r="I15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" ht="40.5" spans="3:15">
+      <c r="C16" s="1">
+        <v>10012</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="M7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8">
+      <c r="F16" s="1">
+        <v>24</v>
+      </c>
+      <c r="G16" s="1">
         <v>1</v>
       </c>
-      <c r="E8">
-        <v>24</v>
-      </c>
-      <c r="F8">
+      <c r="I16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" s="1">
         <v>1</v>
       </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>24</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>24</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>24</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>24</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="B13">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>24</v>
-      </c>
-      <c r="F13">
-        <v>6</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="B14">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>24</v>
-      </c>
-      <c r="F14">
-        <v>7</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="B15">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>24</v>
-      </c>
-      <c r="F15">
-        <v>8</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" ht="27" spans="2:13">
-      <c r="B16">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>24</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="17" ht="40.5" spans="2:13">
-      <c r="B17">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>24</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
+      <c r="O16" s="1">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1048576 F6:F17"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1048575:F1048576 G5:G16 H5:H16"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/DesignerConfigs/Datas/Level.xlsx
+++ b/DesignerConfigs/Datas/Level.xlsx
@@ -1509,7 +1509,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/DesignerConfigs/Datas/Level.xlsx
+++ b/DesignerConfigs/Datas/Level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -41,12 +41,12 @@
             <charset val="134"/>
           </rPr>
           <t>yhc:
-0：固定关卡
-1：常规关卡</t>
+0：常规关卡
+1：固定关卡</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,6 +77,30 @@
           </rPr>
           <t>起始坐标：
 左下角</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+起始坐标：
+左下角
+</t>
         </r>
       </text>
     </comment>
@@ -132,30 +156,6 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-起始坐标：
-左下角
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="0">
-      <text>
-        <r>
-          <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
@@ -164,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
   <si>
     <t>##var</t>
   </si>
@@ -283,7 +283,7 @@
     <t>通关奖励</t>
   </si>
   <si>
-    <t>4,3</t>
+    <t>4,4</t>
   </si>
   <si>
     <t>1_1:1,1_2:2,1_3:3,1_4:4,3_1:5,3_2:1,3_3:6,3_4:2,4_1:6,4_2:3,4_3:4,4_4:5</t>
@@ -311,7 +311,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,13 +322,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -504,31 +497,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,137 +817,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -963,12 +956,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1506,88 +1493,85 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="5" width="14.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="22.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.75" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="14.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.75" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>15</v>
@@ -1596,10 +1580,10 @@
         <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>16</v>
@@ -1614,21 +1598,18 @@
         <v>16</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -1666,344 +1647,338 @@
       <c r="N3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" ht="54" spans="2:14">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
         <v>24</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>32</v>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>40</v>
       </c>
     </row>
-    <row r="5" ht="54" spans="3:15">
-      <c r="C5" s="1">
-        <v>10001</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
+    <row r="8" spans="2:14">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>24</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="1">
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1">
+        <v>4</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>24</v>
+      </c>
+      <c r="F12" s="1">
+        <v>6</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="1">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>24</v>
+      </c>
+      <c r="F13" s="1">
+        <v>7</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>24</v>
+      </c>
+      <c r="F14" s="1">
+        <v>8</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" ht="27" spans="2:14">
+      <c r="B15" s="1">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>24</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" ht="40.5" spans="2:14">
+      <c r="B16" s="1">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>24</v>
+      </c>
+      <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="O5" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="3:15">
-      <c r="C6" s="1">
-        <v>10002</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>6</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
+      <c r="H16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="1">
         <v>1</v>
       </c>
-      <c r="O6" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="3:15">
-      <c r="C7" s="1">
-        <v>10003</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>24</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="3:15">
-      <c r="C8" s="1">
-        <v>10004</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>24</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="3:15">
-      <c r="C9" s="1">
-        <v>10005</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>24</v>
-      </c>
-      <c r="G9" s="1">
-        <v>3</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="3:15">
-      <c r="C10" s="1">
-        <v>10006</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>24</v>
-      </c>
-      <c r="G10" s="1">
-        <v>4</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="3:15">
-      <c r="C11" s="1">
-        <v>10007</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>24</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="3:15">
-      <c r="C12" s="1">
-        <v>10008</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>24</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="3:15">
-      <c r="C13" s="1">
-        <v>10009</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>24</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="3:15">
-      <c r="C14" s="1">
-        <v>10010</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>24</v>
-      </c>
-      <c r="G14" s="1">
-        <v>8</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-      <c r="O14" s="1">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" ht="27" spans="3:15">
-      <c r="C15" s="1">
-        <v>10011</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>24</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
-      <c r="O15" s="1">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="16" ht="40.5" spans="3:15">
-      <c r="C16" s="1">
-        <v>10012</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>24</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="N16" s="1">
-        <v>1</v>
-      </c>
-      <c r="O16" s="1">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1048575:F1048576 G5:G16 H5:H16"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1048575:D1048576 F5:G16"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/DesignerConfigs/Datas/Level.xlsx
+++ b/DesignerConfigs/Datas/Level.xlsx
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
   <si>
     <t>##var</t>
   </si>
@@ -226,6 +226,9 @@
     <t>Reward</t>
   </si>
   <si>
+    <t>SizeExtra</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -281,6 +284,9 @@
   </si>
   <si>
     <t>通关奖励</t>
+  </si>
+  <si>
+    <t>关卡缩放补正</t>
   </si>
   <si>
     <t>4,4</t>
@@ -471,12 +477,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1493,10 +1499,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1513,10 +1519,12 @@
     <col min="11" max="11" width="18" style="1" customWidth="1"/>
     <col min="12" max="12" width="15.375" style="1" customWidth="1"/>
     <col min="13" max="13" width="17.75" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="14" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="12.625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1559,143 +1567,155 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="N2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="5" ht="54" spans="2:14">
+    <row r="5" ht="54" spans="2:15">
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1707,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M5" s="1">
         <v>1</v>
@@ -1715,13 +1735,16 @@
       <c r="N5" s="1">
         <v>10</v>
       </c>
+      <c r="O5" s="1">
+        <v>1.25</v>
+      </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:15">
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -1738,13 +1761,16 @@
       <c r="N6" s="1">
         <v>20</v>
       </c>
+      <c r="O6" s="1">
+        <v>1.25</v>
+      </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:15">
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -1761,13 +1787,16 @@
       <c r="N7" s="1">
         <v>40</v>
       </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:15">
       <c r="B8" s="1">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -1784,13 +1813,16 @@
       <c r="N8" s="1">
         <v>60</v>
       </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:15">
       <c r="B9" s="1">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -1807,13 +1839,16 @@
       <c r="N9" s="1">
         <v>80</v>
       </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:15">
       <c r="B10" s="1">
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -1830,13 +1865,16 @@
       <c r="N10" s="1">
         <v>100</v>
       </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:15">
       <c r="B11" s="1">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -1853,13 +1891,16 @@
       <c r="N11" s="1">
         <v>120</v>
       </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:15">
       <c r="B12" s="1">
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -1876,13 +1917,16 @@
       <c r="N12" s="1">
         <v>140</v>
       </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:15">
       <c r="B13" s="1">
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -1899,13 +1943,16 @@
       <c r="N13" s="1">
         <v>160</v>
       </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:15">
       <c r="B14" s="1">
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -1922,13 +1969,16 @@
       <c r="N14" s="1">
         <v>180</v>
       </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" ht="27" spans="2:14">
+    <row r="15" ht="27" spans="2:15">
       <c r="B15" s="1">
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -1940,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I15" s="3"/>
       <c r="M15" s="1">
@@ -1949,13 +1999,16 @@
       <c r="N15" s="1">
         <v>190</v>
       </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" ht="40.5" spans="2:14">
+    <row r="16" ht="40.5" spans="2:15">
       <c r="B16" s="1">
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -1967,13 +2020,16 @@
         <v>1</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M16" s="1">
         <v>1</v>
       </c>
       <c r="N16" s="1">
         <v>200</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/Level.xlsx
+++ b/DesignerConfigs/Datas/Level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="41">
   <si>
     <t>##var</t>
   </si>
@@ -682,7 +682,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -701,6 +701,15 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -829,7 +838,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -841,34 +850,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -953,7 +962,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -963,8 +972,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1499,10 +1514,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1720,13 +1735,13 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>6</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>36</v>
       </c>
       <c r="M5" s="1">
@@ -1749,7 +1764,7 @@
       <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>6</v>
       </c>
       <c r="F6" s="1">
@@ -1775,8 +1790,8 @@
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="1">
-        <v>24</v>
+      <c r="E7" s="3">
+        <v>16</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -1801,8 +1816,8 @@
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="1">
-        <v>24</v>
+      <c r="E8" s="3">
+        <v>18</v>
       </c>
       <c r="F8" s="1">
         <v>2</v>
@@ -1827,8 +1842,8 @@
       <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="E9" s="1">
-        <v>24</v>
+      <c r="E9" s="3">
+        <v>20</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
@@ -1853,8 +1868,8 @@
       <c r="D10" s="1">
         <v>0</v>
       </c>
-      <c r="E10" s="1">
-        <v>24</v>
+      <c r="E10" s="3">
+        <v>22</v>
       </c>
       <c r="F10" s="1">
         <v>4</v>
@@ -1879,8 +1894,8 @@
       <c r="D11" s="1">
         <v>0</v>
       </c>
-      <c r="E11" s="1">
-        <v>24</v>
+      <c r="E11" s="3">
+        <v>18</v>
       </c>
       <c r="F11" s="1">
         <v>5</v>
@@ -1905,8 +1920,8 @@
       <c r="D12" s="1">
         <v>0</v>
       </c>
-      <c r="E12" s="1">
-        <v>24</v>
+      <c r="E12" s="3">
+        <v>28</v>
       </c>
       <c r="F12" s="1">
         <v>6</v>
@@ -1931,8 +1946,8 @@
       <c r="D13" s="1">
         <v>0</v>
       </c>
-      <c r="E13" s="1">
-        <v>24</v>
+      <c r="E13" s="3">
+        <v>36</v>
       </c>
       <c r="F13" s="1">
         <v>7</v>
@@ -1957,8 +1972,8 @@
       <c r="D14" s="1">
         <v>0</v>
       </c>
-      <c r="E14" s="1">
-        <v>24</v>
+      <c r="E14" s="3">
+        <v>22</v>
       </c>
       <c r="F14" s="1">
         <v>8</v>
@@ -1983,16 +1998,16 @@
       <c r="D15" s="1">
         <v>0</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="3">
         <v>24</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="3"/>
+      <c r="I15" s="4"/>
       <c r="M15" s="1">
         <v>0</v>
       </c>
@@ -2013,13 +2028,13 @@
       <c r="D16" s="1">
         <v>0</v>
       </c>
-      <c r="E16" s="1">
-        <v>24</v>
+      <c r="E16" s="3">
+        <v>26</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="4" t="s">
         <v>40</v>
       </c>
       <c r="M16" s="1">
@@ -2030,6 +2045,83 @@
       </c>
       <c r="O16" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="1">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="1">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="1">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="1">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="1">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="1">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="2:5">
+      <c r="B23" s="1">
+        <v>19</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="5">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/Level.xlsx
+++ b/DesignerConfigs/Datas/Level.xlsx
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,30 +77,6 @@
           </rPr>
           <t>起始坐标：
 左下角</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-起始坐标：
-左下角
-</t>
         </r>
       </text>
     </comment>
@@ -156,6 +132,30 @@
       <text>
         <r>
           <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+起始坐标：
+左下角
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
@@ -164,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -259,6 +259,9 @@
     <t>物品种类数量</t>
   </si>
   <si>
+    <t>功能道具数量</t>
+  </si>
+  <si>
     <t>物品移动方向</t>
   </si>
   <si>
@@ -299,12 +302,6 @@
   </si>
   <si>
     <t>8,12</t>
-  </si>
-  <si>
-    <t>2,7/3,7/6,7/7,7/2,8/3,8/6,8/7,8</t>
-  </si>
-  <si>
-    <t>3,6/4,6/5,6/6,6/3,7/6,7/3,8/6,8/3,9/4,9/5,9/6,9</t>
   </si>
 </sst>
 </file>
@@ -477,12 +474,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1514,10 +1511,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1526,20 +1527,21 @@
     <col min="3" max="3" width="14.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.75" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="12.625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="15.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="12.625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1555,38 +1557,39 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -1602,14 +1605,12 @@
       <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>17</v>
@@ -1624,16 +1625,19 @@
         <v>17</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="P2" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -1649,9 +1653,7 @@
       <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
@@ -1679,8 +1681,11 @@
       <c r="O3" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="P3" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -1724,13 +1729,16 @@
       <c r="O4" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="P4" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="5" ht="54" spans="2:15">
+    <row r="5" ht="54" spans="2:16">
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1738,28 +1746,31 @@
       <c r="E5" s="3">
         <v>6</v>
       </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1</v>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
         <v>10</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P5" s="1">
         <v>1.25</v>
       </c>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:16">
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -1767,25 +1778,26 @@
       <c r="E6" s="3">
         <v>6</v>
       </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1</v>
+      <c r="F6" s="3"/>
+      <c r="G6" s="1">
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
         <v>20</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>1.25</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:16">
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -1793,25 +1805,26 @@
       <c r="E7" s="3">
         <v>16</v>
       </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
+      <c r="F7" s="3"/>
+      <c r="G7" s="1">
+        <v>1</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
         <v>40</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:16">
       <c r="B8" s="1">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -1819,25 +1832,26 @@
       <c r="E8" s="3">
         <v>18</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="3"/>
+      <c r="G8" s="1">
         <v>2</v>
       </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
         <v>60</v>
       </c>
-      <c r="O8" s="1">
+      <c r="P8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:16">
       <c r="B9" s="1">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -1845,25 +1859,26 @@
       <c r="E9" s="3">
         <v>20</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="3"/>
+      <c r="G9" s="1">
         <v>3</v>
       </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
         <v>80</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:16">
       <c r="B10" s="1">
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -1871,25 +1886,26 @@
       <c r="E10" s="3">
         <v>22</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="3"/>
+      <c r="G10" s="1">
         <v>4</v>
       </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
         <v>100</v>
       </c>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:16">
       <c r="B11" s="1">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -1897,77 +1913,80 @@
       <c r="E11" s="3">
         <v>18</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="3"/>
+      <c r="G11" s="1">
         <v>5</v>
       </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
         <v>120</v>
       </c>
-      <c r="O11" s="1">
+      <c r="P11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:16">
       <c r="B12" s="1">
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>28</v>
-      </c>
-      <c r="F12" s="1">
+        <v>22</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="1">
         <v>6</v>
       </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
         <v>140</v>
       </c>
-      <c r="O12" s="1">
+      <c r="P12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:16">
       <c r="B13" s="1">
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="3">
-        <v>36</v>
-      </c>
-      <c r="F13" s="1">
+        <v>22</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="1">
         <v>7</v>
       </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
       <c r="N13" s="1">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1">
         <v>160</v>
       </c>
-      <c r="O13" s="1">
+      <c r="P13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:16">
       <c r="B14" s="1">
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -1975,158 +1994,248 @@
       <c r="E14" s="3">
         <v>22</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="3"/>
+      <c r="G14" s="1">
         <v>8</v>
       </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
         <v>180</v>
       </c>
-      <c r="O14" s="1">
+      <c r="P14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="27" spans="2:15">
+    <row r="15" ht="27" spans="2:16">
       <c r="B15" s="1">
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>24</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>39</v>
+        <v>22</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="1">
+        <v>0</v>
       </c>
       <c r="I15" s="4"/>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
+      <c r="J15" s="4"/>
       <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
         <v>190</v>
       </c>
-      <c r="O15" s="1">
+      <c r="P15" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="40.5" spans="2:15">
+    <row r="16" ht="40.5" spans="2:16">
       <c r="B16" s="1">
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="3">
-        <v>26</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M16" s="1">
-        <v>1</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4"/>
       <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
         <v>200</v>
       </c>
-      <c r="O16" s="1">
+      <c r="P16" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:16">
       <c r="B17" s="1">
         <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E17" s="3">
         <v>20</v>
       </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>140</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:16">
       <c r="B18" s="1">
         <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E18" s="3">
         <v>20</v>
       </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="1">
+        <v>2</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>160</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:16">
       <c r="B19" s="1">
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E19" s="3">
         <v>18</v>
       </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="1">
+        <v>3</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>180</v>
+      </c>
+      <c r="P19" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:16">
       <c r="B20" s="1">
         <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E20" s="3">
         <v>28</v>
       </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="1">
+        <v>4</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>190</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:16">
       <c r="B21" s="1">
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E21" s="3">
         <v>20</v>
       </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="1">
+        <v>5</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>200</v>
+      </c>
+      <c r="P21" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:16">
       <c r="B22" s="1">
         <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E22" s="3">
         <v>20</v>
       </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="1">
+        <v>6</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>140</v>
+      </c>
+      <c r="P22" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" ht="14.25" spans="2:5">
+    <row r="23" ht="14.25" spans="2:16">
       <c r="B23" s="1">
         <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E23" s="5">
-        <v>42</v>
+        <v>22</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="1">
+        <v>7</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>160</v>
+      </c>
+      <c r="P23" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1048575:D1048576 F5:G16"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16 D1048575:D1048576 G16:G23 G5:H15"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/DesignerConfigs/Datas/Level.xlsx
+++ b/DesignerConfigs/Datas/Level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="41">
   <si>
     <t>##var</t>
   </si>
@@ -256,6 +256,9 @@
     <t>物品总数</t>
   </si>
   <si>
+    <t>关卡类型</t>
+  </si>
+  <si>
     <t>物品种类数量</t>
   </si>
   <si>
@@ -265,7 +268,7 @@
     <t>物品移动方向</t>
   </si>
   <si>
-    <t>aa</t>
+    <t>当关卡类型为固定关卡时，物品的排序</t>
   </si>
   <si>
     <t>可移动的隐藏物的位置</t>
@@ -474,12 +477,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1518,7 +1521,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1695,42 +1698,44 @@
       <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" ht="54" spans="2:16">
@@ -1738,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1753,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N5" s="1">
         <v>1</v>
@@ -1770,7 +1775,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -1797,7 +1802,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -1824,7 +1829,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -1851,7 +1856,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -1878,7 +1883,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -1905,7 +1910,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -1932,7 +1937,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -1959,7 +1964,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -1986,7 +1991,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -2008,12 +2013,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="27" spans="2:16">
+    <row r="15" spans="2:16">
       <c r="B15" s="1">
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -2037,12 +2042,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="40.5" spans="2:16">
+    <row r="16" spans="2:16">
       <c r="B16" s="1">
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -2070,7 +2075,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E17" s="3">
         <v>20</v>
@@ -2094,7 +2099,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E18" s="3">
         <v>20</v>
@@ -2118,7 +2123,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E19" s="3">
         <v>18</v>
@@ -2142,7 +2147,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E20" s="3">
         <v>28</v>
@@ -2166,7 +2171,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E21" s="3">
         <v>20</v>
@@ -2190,7 +2195,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" s="3">
         <v>20</v>
@@ -2214,7 +2219,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E23" s="5">
         <v>22</v>

--- a/DesignerConfigs/Datas/Level.xlsx
+++ b/DesignerConfigs/Datas/Level.xlsx
@@ -477,12 +477,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1521,7 +1521,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/DesignerConfigs/Datas/Level.xlsx
+++ b/DesignerConfigs/Datas/Level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
@@ -1521,7 +1521,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="1">
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="1">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="1">
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="1">
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="3">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="1">
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="1">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="3">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="1">

--- a/DesignerConfigs/Datas/Level.xlsx
+++ b/DesignerConfigs/Datas/Level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
@@ -177,12 +177,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="Q1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1：春
+2：夏
+3：秋
+4：冬
+5：梅
+6：兰
+7：竹
+8：菊</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -229,6 +248,9 @@
     <t>SizeExtra</t>
   </si>
   <si>
+    <t>assistgood</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -293,6 +315,9 @@
   </si>
   <si>
     <t>关卡缩放补正</t>
+  </si>
+  <si>
+    <t>工具物体的位置和种类</t>
   </si>
   <si>
     <t>4,4</t>
@@ -1514,14 +1539,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomRight" activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1541,10 +1566,11 @@
     <col min="14" max="14" width="17.75" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1"/>
     <col min="16" max="16" width="12.625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="17" max="17" width="25.5" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1591,151 +1617,163 @@
       <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="O2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" ht="54" spans="2:16">
@@ -1743,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1758,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N5" s="1">
         <v>1</v>
@@ -1775,7 +1813,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -1802,7 +1840,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -1829,7 +1867,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -1856,7 +1894,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -1883,7 +1921,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -1910,7 +1948,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -1937,7 +1975,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -1964,7 +2002,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -1991,7 +2029,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -2018,7 +2056,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -2047,7 +2085,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -2075,7 +2113,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E17" s="3">
         <v>20</v>
@@ -2099,7 +2137,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E18" s="3">
         <v>20</v>
@@ -2123,7 +2161,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E19" s="3">
         <v>18</v>
@@ -2147,7 +2185,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E20" s="3">
         <v>28</v>
@@ -2171,7 +2209,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E21" s="3">
         <v>20</v>
@@ -2195,7 +2233,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E22" s="3">
         <v>20</v>
@@ -2219,7 +2257,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E23" s="5">
         <v>22</v>

--- a/DesignerConfigs/Datas/Level.xlsx
+++ b/DesignerConfigs/Datas/Level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
@@ -502,12 +502,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1542,11 +1542,11 @@
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q23" sqref="Q23"/>
+      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="1">
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="3">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="1">
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="1">

--- a/DesignerConfigs/Datas/Level.xlsx
+++ b/DesignerConfigs/Datas/Level.xlsx
@@ -67,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,30 +77,6 @@
           </rPr>
           <t>起始坐标：
 左下角</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-起始坐标：
-左下角
-</t>
         </r>
       </text>
     </comment>
@@ -156,6 +132,30 @@
       <text>
         <r>
           <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+起始坐标：
+左下角
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
@@ -164,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -177,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -201,7 +201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -224,6 +224,9 @@
     <t>FixedGridMap</t>
   </si>
   <si>
+    <t>EmptyGridMap</t>
+  </si>
+  <si>
     <t>HiddleGood_Move</t>
   </si>
   <si>
@@ -263,6 +266,9 @@
     <t>(map#sep=:,),string,int</t>
   </si>
   <si>
+    <t>(map#sep=:,),int,int</t>
+  </si>
+  <si>
     <t>float</t>
   </si>
   <si>
@@ -324,6 +330,9 @@
   </si>
   <si>
     <t>1_1:1,1_2:2,1_3:3,1_4:4,3_1:5,3_2:1,3_3:6,3_4:2,4_1:6,4_2:3,4_3:4,4_4:5</t>
+  </si>
+  <si>
+    <t>1:1,2:3,5:6</t>
   </si>
   <si>
     <t>4,6</t>
@@ -502,12 +511,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1539,14 +1548,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1558,19 +1567,20 @@
     <col min="6" max="6" width="15.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.75" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="12.625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="25.5" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="27.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="1"/>
+    <col min="17" max="17" width="12.625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="25.5" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1620,168 +1630,180 @@
       <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="5" ht="54" spans="2:16">
+    <row r="5" ht="54" spans="2:17">
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1796,24 +1818,27 @@
         <v>0</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
         <v>10</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
         <v>1.25</v>
       </c>
     </row>
-    <row r="6" spans="2:16">
+    <row r="6" spans="2:17">
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -1825,22 +1850,22 @@
       <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="N6" s="1">
-        <v>1</v>
-      </c>
       <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
         <v>20</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>1.25</v>
       </c>
     </row>
-    <row r="7" spans="2:16">
+    <row r="7" spans="2:17">
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -1852,22 +1877,22 @@
       <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
       <c r="O7" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" spans="2:17">
       <c r="B8" s="1">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -1879,22 +1904,22 @@
       <c r="G8" s="1">
         <v>2</v>
       </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
       <c r="O8" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:16">
+    <row r="9" spans="2:17">
       <c r="B9" s="1">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -1906,22 +1931,22 @@
       <c r="G9" s="1">
         <v>3</v>
       </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
       <c r="O9" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" spans="2:17">
       <c r="B10" s="1">
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -1933,22 +1958,22 @@
       <c r="G10" s="1">
         <v>4</v>
       </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
       <c r="O10" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:17">
       <c r="B11" s="1">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -1960,22 +1985,22 @@
       <c r="G11" s="1">
         <v>5</v>
       </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
       <c r="O11" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="2:17">
       <c r="B12" s="1">
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -1987,22 +2012,22 @@
       <c r="G12" s="1">
         <v>6</v>
       </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
       <c r="O12" s="1">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:17">
       <c r="B13" s="1">
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -2014,22 +2039,22 @@
       <c r="G13" s="1">
         <v>7</v>
       </c>
-      <c r="N13" s="1">
-        <v>1</v>
-      </c>
       <c r="O13" s="1">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="P13" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:17">
       <c r="B14" s="1">
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -2041,22 +2066,22 @@
       <c r="G14" s="1">
         <v>8</v>
       </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
       <c r="O14" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" spans="2:17">
       <c r="B15" s="1">
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -2068,24 +2093,24 @@
       <c r="G15" s="1">
         <v>0</v>
       </c>
-      <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
+      <c r="K15" s="4"/>
       <c r="O15" s="1">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q15" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="2:17">
       <c r="B16" s="1">
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -2097,23 +2122,23 @@
       <c r="G16" s="1">
         <v>0</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
+      <c r="J16" s="4"/>
       <c r="O16" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q16" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:17">
       <c r="B17" s="1">
         <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E17" s="3">
         <v>20</v>
@@ -2122,22 +2147,22 @@
       <c r="G17" s="1">
         <v>1</v>
       </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
       <c r="O17" s="1">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q17" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:17">
       <c r="B18" s="1">
         <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E18" s="3">
         <v>20</v>
@@ -2146,22 +2171,22 @@
       <c r="G18" s="1">
         <v>2</v>
       </c>
-      <c r="N18" s="1">
-        <v>0</v>
-      </c>
       <c r="O18" s="1">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q18" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:17">
       <c r="B19" s="1">
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E19" s="3">
         <v>18</v>
@@ -2170,22 +2195,22 @@
       <c r="G19" s="1">
         <v>3</v>
       </c>
-      <c r="N19" s="1">
-        <v>0</v>
-      </c>
       <c r="O19" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q19" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:17">
       <c r="B20" s="1">
         <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E20" s="3">
         <v>28</v>
@@ -2194,22 +2219,22 @@
       <c r="G20" s="1">
         <v>4</v>
       </c>
-      <c r="N20" s="1">
-        <v>0</v>
-      </c>
       <c r="O20" s="1">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q20" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:17">
       <c r="B21" s="1">
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E21" s="3">
         <v>20</v>
@@ -2218,22 +2243,22 @@
       <c r="G21" s="1">
         <v>5</v>
       </c>
-      <c r="N21" s="1">
-        <v>0</v>
-      </c>
       <c r="O21" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q21" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:17">
       <c r="B22" s="1">
         <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E22" s="3">
         <v>20</v>
@@ -2242,22 +2267,22 @@
       <c r="G22" s="1">
         <v>6</v>
       </c>
-      <c r="N22" s="1">
-        <v>0</v>
-      </c>
       <c r="O22" s="1">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q22" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="2:16">
+    <row r="23" ht="14.25" spans="2:17">
       <c r="B23" s="1">
         <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E23" s="5">
         <v>22</v>
@@ -2266,19 +2291,19 @@
       <c r="G23" s="1">
         <v>7</v>
       </c>
-      <c r="N23" s="1">
-        <v>0</v>
-      </c>
       <c r="O23" s="1">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q23" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16 D1048575:D1048576 G16:G23 G5:H15"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16 I16 D1048575:D1048576 G16:G23 I5:I15 G5:H15"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/DesignerConfigs/Datas/Level.xlsx
+++ b/DesignerConfigs/Datas/Level.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
@@ -332,10 +332,10 @@
     <t>1_1:1,1_2:2,1_3:3,1_4:4,3_1:5,3_2:1,3_3:6,3_4:2,4_1:6,4_2:3,4_3:4,4_4:5</t>
   </si>
   <si>
+    <t>4,6</t>
+  </si>
+  <si>
     <t>1:1,2:3,5:6</t>
-  </si>
-  <si>
-    <t>4,6</t>
   </si>
   <si>
     <t>8,12</t>
@@ -1555,7 +1555,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1820,9 +1820,7 @@
       <c r="H5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="I5" s="4"/>
       <c r="O5" s="1">
         <v>1</v>
       </c>
@@ -1838,7 +1836,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -1849,6 +1847,9 @@
       <c r="F6" s="3"/>
       <c r="G6" s="1">
         <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="O6" s="1">
         <v>1</v>
@@ -2303,7 +2304,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16 I16 D1048575:D1048576 G16:G23 I5:I15 G5:H15"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16:I16 D1048575:D1048576 G16:G23 G5:I15"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/DesignerConfigs/Datas/Level.xlsx
+++ b/DesignerConfigs/Datas/Level.xlsx
@@ -201,7 +201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="45">
   <si>
     <t>##var</t>
   </si>
@@ -266,9 +266,6 @@
     <t>(map#sep=:,),string,int</t>
   </si>
   <si>
-    <t>(map#sep=:,),int,int</t>
-  </si>
-  <si>
     <t>float</t>
   </si>
   <si>
@@ -335,7 +332,7 @@
     <t>4,6</t>
   </si>
   <si>
-    <t>1:1,2:3,5:6</t>
+    <t>1_1:1,2_2:2</t>
   </si>
   <si>
     <t>8,12</t>
@@ -1555,7 +1552,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1658,7 +1655,7 @@
         <v>20</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>19</v>
@@ -1679,10 +1676,10 @@
         <v>18</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>20</v>
@@ -1690,112 +1687,112 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" ht="54" spans="2:17">
@@ -1803,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1818,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" s="4"/>
       <c r="O5" s="1">
@@ -1836,7 +1833,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -1849,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O6" s="1">
         <v>1</v>
@@ -1866,7 +1863,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -1893,7 +1890,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -1920,7 +1917,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -1947,7 +1944,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -1974,7 +1971,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -2001,7 +1998,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -2028,7 +2025,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -2055,7 +2052,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -2082,7 +2079,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -2111,7 +2108,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -2139,7 +2136,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" s="3">
         <v>20</v>
@@ -2163,7 +2160,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" s="3">
         <v>20</v>
@@ -2187,7 +2184,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19" s="3">
         <v>18</v>
@@ -2211,7 +2208,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" s="3">
         <v>28</v>
@@ -2235,7 +2232,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21" s="3">
         <v>20</v>
@@ -2259,7 +2256,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22" s="3">
         <v>20</v>
@@ -2283,7 +2280,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" s="5">
         <v>22</v>

--- a/DesignerConfigs/Datas/Level.xlsx
+++ b/DesignerConfigs/Datas/Level.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="11775"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
@@ -173,7 +173,8 @@
             <charset val="134"/>
           </rPr>
           <t>0：不可兑现
-1：可兑现</t>
+1：可兑现
+2：双倍兑现</t>
         </r>
       </text>
     </comment>
@@ -201,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="44">
   <si>
     <t>##var</t>
   </si>
@@ -330,9 +331,6 @@
   </si>
   <si>
     <t>4,6</t>
-  </si>
-  <si>
-    <t>1_1:1,2_2:2</t>
   </si>
   <si>
     <t>8,12</t>
@@ -1548,11 +1546,11 @@
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomRight" activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1845,9 +1843,6 @@
       <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="O6" s="1">
         <v>1</v>
       </c>
@@ -1863,7 +1858,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -1890,7 +1885,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -1917,7 +1912,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -1944,7 +1939,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -1971,7 +1966,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -1998,7 +1993,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -2025,7 +2020,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -2052,7 +2047,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -2079,7 +2074,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -2108,7 +2103,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -2136,7 +2131,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" s="3">
         <v>20</v>
@@ -2146,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="O17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" s="1">
         <v>50</v>
@@ -2160,7 +2155,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" s="3">
         <v>20</v>
@@ -2184,7 +2179,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" s="3">
         <v>18</v>
@@ -2208,7 +2203,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="3">
         <v>28</v>
@@ -2232,7 +2227,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" s="3">
         <v>20</v>
@@ -2256,7 +2251,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22" s="3">
         <v>20</v>
@@ -2280,7 +2275,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" s="5">
         <v>22</v>
@@ -2290,7 +2285,7 @@
         <v>7</v>
       </c>
       <c r="O23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" s="1">
         <v>50</v>

--- a/DesignerConfigs/Datas/Level.xlsx
+++ b/DesignerConfigs/Datas/Level.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
@@ -1550,7 +1550,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O23" sqref="O23"/>
+      <selection pane="bottomRight" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2033,7 +2033,7 @@
         <v>7</v>
       </c>
       <c r="O13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13" s="1">
         <v>50</v>
@@ -2141,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="O17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>50</v>
@@ -2270,7 +2270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="2:17">
+    <row r="23" spans="2:17">
       <c r="B23" s="1">
         <v>19</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>7</v>
       </c>
       <c r="O23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P23" s="1">
         <v>50</v>

--- a/DesignerConfigs/Datas/Level.xlsx
+++ b/DesignerConfigs/Datas/Level.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="11775"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
@@ -327,7 +327,7 @@
     <t>4,4</t>
   </si>
   <si>
-    <t>1_1:1,1_2:2,1_3:3,1_4:4,3_1:5,3_2:1,3_3:6,3_4:2,4_1:6,4_2:3,4_3:4,4_4:5</t>
+    <t>1_1:0,1_2:1,1_3:2,1_4:3,3_1:4,3_2:0,3_3:5,3_4:1,4_1:5,4_2:2,4_3:3,4_4:4</t>
   </si>
   <si>
     <t>4,6</t>
@@ -506,12 +506,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1550,7 +1550,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O17" sqref="O17"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2270,7 +2270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:17">
+    <row r="23" ht="14.25" spans="2:17">
       <c r="B23" s="1">
         <v>19</v>
       </c>

--- a/DesignerConfigs/Datas/Level.xlsx
+++ b/DesignerConfigs/Datas/Level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,30 +77,6 @@
           </rPr>
           <t>起始坐标：
 左下角</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-起始坐标：
-左下角
-</t>
         </r>
       </text>
     </comment>
@@ -156,6 +132,30 @@
       <text>
         <r>
           <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+起始坐标：
+左下角
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
@@ -164,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -178,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="45">
   <si>
     <t>##var</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>GoodKinds</t>
+  </si>
+  <si>
+    <t>GoodKinds1</t>
   </si>
   <si>
     <t>MoveDic</t>
@@ -506,12 +509,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1004,11 +1007,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1543,14 +1546,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1558,24 +1561,24 @@
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="14.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22" style="1" customWidth="1"/>
-    <col min="9" max="9" width="27.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="22.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.75" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="12.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="25.5" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="5" max="6" width="12.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="1"/>
+    <col min="18" max="18" width="12.625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="25.5" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1591,10 +1594,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2"/>
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1628,130 +1631,139 @@
       <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="S1" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>28</v>
@@ -1763,7 +1775,7 @@
         <v>30</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>31</v>
@@ -1792,13 +1804,16 @@
       <c r="R4" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="S4" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="5" ht="54" spans="2:17">
+    <row r="5" ht="54" spans="2:18">
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1807,31 +1822,34 @@
         <v>6</v>
       </c>
       <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="O5" s="1">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="5"/>
       <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
         <v>10</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="R5" s="1">
         <v>1.25</v>
       </c>
     </row>
-    <row r="6" spans="2:17">
+    <row r="6" spans="2:18">
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -1839,26 +1857,29 @@
       <c r="E6" s="3">
         <v>6</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1</v>
+      <c r="F6" s="3">
+        <v>6</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="1">
+        <v>0</v>
       </c>
       <c r="P6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1">
         <v>20</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="R6" s="1">
         <v>1.25</v>
       </c>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:18">
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -1866,26 +1887,29 @@
       <c r="E7" s="3">
         <v>8</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0</v>
+      <c r="F7" s="3">
+        <v>8</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="1">
+        <v>1</v>
       </c>
       <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
         <v>30</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="R7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="2:18">
       <c r="B8" s="1">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -1893,26 +1917,29 @@
       <c r="E8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="1">
+      <c r="F8" s="3">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="1">
         <v>2</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
       <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
         <v>40</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="R8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:18">
       <c r="B9" s="1">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -1920,26 +1947,29 @@
       <c r="E9" s="3">
         <v>12</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="1">
+      <c r="F9" s="3">
+        <v>12</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="1">
         <v>3</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
       <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
         <v>50</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="R9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:18">
       <c r="B10" s="1">
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -1947,26 +1977,29 @@
       <c r="E10" s="3">
         <v>14</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="1">
+      <c r="F10" s="3">
+        <v>14</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="1">
         <v>4</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
       <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
         <v>50</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="R10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:17">
+    <row r="11" spans="2:18">
       <c r="B11" s="1">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -1974,26 +2007,29 @@
       <c r="E11" s="3">
         <v>16</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="1">
+      <c r="F11" s="3">
+        <v>16</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="1">
         <v>5</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
       <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
         <v>50</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="R11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:18">
       <c r="B12" s="1">
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -2001,26 +2037,29 @@
       <c r="E12" s="3">
         <v>20</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="1">
+      <c r="F12" s="3">
+        <v>20</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="1">
         <v>6</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
       <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
         <v>50</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="R12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:17">
+    <row r="13" spans="2:18">
       <c r="B13" s="1">
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -2028,26 +2067,29 @@
       <c r="E13" s="3">
         <v>30</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="1">
+      <c r="F13" s="3">
+        <v>30</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="1">
         <v>7</v>
       </c>
-      <c r="O13" s="1">
+      <c r="P13" s="1">
         <v>2</v>
       </c>
-      <c r="P13" s="1">
+      <c r="Q13" s="1">
         <v>50</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="R13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:17">
+    <row r="14" spans="2:18">
       <c r="B14" s="1">
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -2055,26 +2097,29 @@
       <c r="E14" s="3">
         <v>22</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="1">
+      <c r="F14" s="3">
+        <v>22</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="1">
         <v>8</v>
       </c>
-      <c r="O14" s="1">
-        <v>0</v>
-      </c>
       <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
         <v>50</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="R14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:17">
+    <row r="15" spans="2:18">
       <c r="B15" s="1">
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -2082,28 +2127,31 @@
       <c r="E15" s="3">
         <v>22</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="O15" s="1">
-        <v>0</v>
-      </c>
+      <c r="F15" s="3">
+        <v>22</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
       <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
         <v>50</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="R15" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:17">
+    <row r="16" spans="2:18">
       <c r="B16" s="1">
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -2111,192 +2159,216 @@
       <c r="E16" s="3">
         <v>22</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="O16" s="1">
-        <v>0</v>
-      </c>
+      <c r="F16" s="3">
+        <v>22</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5"/>
       <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
         <v>50</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="R16" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:17">
+    <row r="17" spans="2:18">
       <c r="B17" s="1">
         <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" s="3">
         <v>20</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="O17" s="1">
-        <v>0</v>
+      <c r="F17" s="3">
+        <v>20</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="1">
+        <v>1</v>
       </c>
       <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
         <v>50</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="R17" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:17">
+    <row r="18" spans="2:18">
       <c r="B18" s="1">
         <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18" s="3">
         <v>20</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="1">
+      <c r="F18" s="3">
+        <v>20</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="1">
         <v>2</v>
       </c>
-      <c r="O18" s="1">
-        <v>0</v>
-      </c>
       <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
         <v>50</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="R18" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:17">
+    <row r="19" spans="2:18">
       <c r="B19" s="1">
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E19" s="3">
         <v>18</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="1">
+      <c r="F19" s="3">
+        <v>18</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="1">
         <v>3</v>
       </c>
-      <c r="O19" s="1">
-        <v>0</v>
-      </c>
       <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
         <v>50</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="R19" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:17">
+    <row r="20" spans="2:18">
       <c r="B20" s="1">
         <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E20" s="3">
         <v>28</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="1">
+      <c r="F20" s="3">
+        <v>28</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="1">
         <v>4</v>
       </c>
-      <c r="O20" s="1">
-        <v>0</v>
-      </c>
       <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
         <v>50</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="R20" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:17">
+    <row r="21" spans="2:18">
       <c r="B21" s="1">
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E21" s="3">
         <v>20</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="1">
+      <c r="F21" s="3">
+        <v>20</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="1">
         <v>5</v>
       </c>
-      <c r="O21" s="1">
-        <v>0</v>
-      </c>
       <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
         <v>50</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="R21" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:17">
+    <row r="22" spans="2:18">
       <c r="B22" s="1">
         <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E22" s="3">
         <v>20</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="1">
+      <c r="F22" s="3">
+        <v>20</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="1">
         <v>6</v>
       </c>
-      <c r="O22" s="1">
-        <v>0</v>
-      </c>
       <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
         <v>50</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="R22" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="2:17">
+    <row r="23" ht="14.25" spans="2:18">
       <c r="B23" s="1">
         <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="5">
+        <v>44</v>
+      </c>
+      <c r="E23" s="4">
         <v>22</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="1">
+      <c r="F23" s="4">
+        <v>22</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="1">
         <v>7</v>
       </c>
-      <c r="O23" s="1">
+      <c r="P23" s="1">
         <v>2</v>
       </c>
-      <c r="P23" s="1">
+      <c r="Q23" s="1">
         <v>50</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="R23" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16:I16 D1048575:D1048576 G16:G23 G5:I15"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I16:J16 D1048575:D1048576 H16:H23 H5:J15"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/DesignerConfigs/Datas/Level.xlsx
+++ b/DesignerConfigs/Datas/Level.xlsx
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="45">
   <si>
     <t>##var</t>
   </si>
@@ -714,7 +714,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -741,8 +741,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.15"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.15"/>
       </bottom>
       <diagonal/>
     </border>
@@ -870,7 +881,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -882,34 +893,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -994,7 +1005,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1008,6 +1019,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1546,14 +1560,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:S92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1565,12 +1579,7 @@
     <col min="7" max="7" width="15.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="23.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="22" style="1" customWidth="1"/>
-    <col min="10" max="10" width="27.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.375" style="1" customWidth="1"/>
+    <col min="10" max="15" width="11.625" style="1" customWidth="1"/>
     <col min="16" max="16" width="17.75" style="1" customWidth="1"/>
     <col min="17" max="17" width="9" style="1"/>
     <col min="18" max="18" width="12.625" style="1" customWidth="1"/>
@@ -1830,10 +1839,10 @@
       <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="5"/>
+      <c r="J5" s="6"/>
       <c r="P5" s="1">
         <v>1</v>
       </c>
@@ -1888,7 +1897,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="1">
@@ -1918,7 +1927,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="1">
@@ -1948,7 +1957,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="1">
@@ -1978,7 +1987,7 @@
         <v>14</v>
       </c>
       <c r="F10" s="3">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="1">
@@ -2008,7 +2017,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="3">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="1">
@@ -2038,7 +2047,7 @@
         <v>20</v>
       </c>
       <c r="F12" s="3">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="1">
@@ -2065,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="3">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F13" s="3">
         <v>30</v>
@@ -2095,10 +2104,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F14" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="1">
@@ -2128,14 +2137,14 @@
         <v>22</v>
       </c>
       <c r="F15" s="3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="1">
         <v>0</v>
       </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
       <c r="P15" s="1">
         <v>0</v>
       </c>
@@ -2157,16 +2166,16 @@
         <v>0</v>
       </c>
       <c r="E16" s="3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" s="3">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="1">
         <v>0</v>
       </c>
-      <c r="K16" s="5"/>
+      <c r="K16" s="6"/>
       <c r="P16" s="1">
         <v>0</v>
       </c>
@@ -2184,18 +2193,21 @@
       <c r="C17" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
       <c r="E17" s="3">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F17" s="3">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="1">
         <v>1</v>
       </c>
       <c r="P17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q17" s="1">
         <v>50</v>
@@ -2211,8 +2223,11 @@
       <c r="C18" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
       <c r="E18" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F18" s="3">
         <v>20</v>
@@ -2238,11 +2253,14 @@
       <c r="C19" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
       <c r="E19" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F19" s="3">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="1">
@@ -2265,11 +2283,14 @@
       <c r="C20" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
       <c r="E20" s="3">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F20" s="3">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="1">
@@ -2292,11 +2313,14 @@
       <c r="C21" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
       <c r="E21" s="3">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F21" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="1">
@@ -2319,11 +2343,14 @@
       <c r="C22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="3">
-        <v>20</v>
-      </c>
-      <c r="F22" s="3">
-        <v>20</v>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>20</v>
+      </c>
+      <c r="F22" s="4">
+        <v>34</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="1">
@@ -2339,18 +2366,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="2:18">
+    <row r="23" spans="2:18">
       <c r="B23" s="1">
         <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="4">
-        <v>22</v>
-      </c>
-      <c r="F23" s="4">
-        <v>22</v>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>24</v>
+      </c>
+      <c r="F23" s="5">
+        <v>36</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="1">
@@ -2366,9 +2396,2010 @@
         <v>1</v>
       </c>
     </row>
+    <row r="24" spans="2:18">
+      <c r="B24" s="1">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>20</v>
+      </c>
+      <c r="F24" s="5">
+        <v>20</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>50</v>
+      </c>
+      <c r="R24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18">
+      <c r="B25" s="1">
+        <v>21</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5">
+        <v>24</v>
+      </c>
+      <c r="F25" s="5">
+        <v>24</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>50</v>
+      </c>
+      <c r="R25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18">
+      <c r="B26" s="1">
+        <v>22</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
+        <v>20</v>
+      </c>
+      <c r="F26" s="5">
+        <v>20</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>50</v>
+      </c>
+      <c r="R26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18">
+      <c r="B27" s="1">
+        <v>23</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <v>22</v>
+      </c>
+      <c r="F27" s="5">
+        <v>22</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>50</v>
+      </c>
+      <c r="R27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18">
+      <c r="B28" s="1">
+        <v>24</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <v>20</v>
+      </c>
+      <c r="F28" s="5">
+        <v>20</v>
+      </c>
+      <c r="H28" s="1">
+        <v>3</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>50</v>
+      </c>
+      <c r="R28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18">
+      <c r="B29" s="1">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5">
+        <v>20</v>
+      </c>
+      <c r="F29" s="5">
+        <v>20</v>
+      </c>
+      <c r="H29" s="1">
+        <v>4</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>50</v>
+      </c>
+      <c r="R29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18">
+      <c r="B30" s="1">
+        <v>26</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5">
+        <v>24</v>
+      </c>
+      <c r="F30" s="5">
+        <v>24</v>
+      </c>
+      <c r="H30" s="1">
+        <v>5</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>50</v>
+      </c>
+      <c r="R30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18">
+      <c r="B31" s="1">
+        <v>27</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5">
+        <v>22</v>
+      </c>
+      <c r="F31" s="5">
+        <v>22</v>
+      </c>
+      <c r="H31" s="1">
+        <v>6</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>50</v>
+      </c>
+      <c r="R31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18">
+      <c r="B32" s="1">
+        <v>28</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5">
+        <v>20</v>
+      </c>
+      <c r="F32" s="5">
+        <v>20</v>
+      </c>
+      <c r="H32" s="1">
+        <v>7</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>50</v>
+      </c>
+      <c r="R32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18">
+      <c r="B33" s="1">
+        <v>29</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="5">
+        <v>22</v>
+      </c>
+      <c r="F33" s="5">
+        <v>22</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>50</v>
+      </c>
+      <c r="R33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18">
+      <c r="B34" s="1">
+        <v>30</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="5">
+        <v>24</v>
+      </c>
+      <c r="F34" s="5">
+        <v>24</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>50</v>
+      </c>
+      <c r="R34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18">
+      <c r="B35" s="1">
+        <v>31</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5">
+        <v>22</v>
+      </c>
+      <c r="F35" s="5">
+        <v>22</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>50</v>
+      </c>
+      <c r="R35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18">
+      <c r="B36" s="1">
+        <v>32</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="5">
+        <v>20</v>
+      </c>
+      <c r="F36" s="5">
+        <v>20</v>
+      </c>
+      <c r="H36" s="1">
+        <v>2</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>50</v>
+      </c>
+      <c r="R36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18">
+      <c r="B37" s="1">
+        <v>33</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="5">
+        <v>22</v>
+      </c>
+      <c r="F37" s="5">
+        <v>22</v>
+      </c>
+      <c r="H37" s="1">
+        <v>3</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>50</v>
+      </c>
+      <c r="R37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18">
+      <c r="B38" s="1">
+        <v>34</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="5">
+        <v>24</v>
+      </c>
+      <c r="F38" s="5">
+        <v>24</v>
+      </c>
+      <c r="H38" s="1">
+        <v>4</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>50</v>
+      </c>
+      <c r="R38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18">
+      <c r="B39" s="1">
+        <v>35</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="5">
+        <v>22</v>
+      </c>
+      <c r="F39" s="5">
+        <v>22</v>
+      </c>
+      <c r="H39" s="1">
+        <v>5</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>50</v>
+      </c>
+      <c r="R39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18">
+      <c r="B40" s="1">
+        <v>36</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="5">
+        <v>20</v>
+      </c>
+      <c r="F40" s="5">
+        <v>20</v>
+      </c>
+      <c r="H40" s="1">
+        <v>6</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>50</v>
+      </c>
+      <c r="R40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18">
+      <c r="B41" s="1">
+        <v>37</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="5">
+        <v>22</v>
+      </c>
+      <c r="F41" s="5">
+        <v>22</v>
+      </c>
+      <c r="H41" s="1">
+        <v>7</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>50</v>
+      </c>
+      <c r="R41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18">
+      <c r="B42" s="1">
+        <v>38</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="5">
+        <v>24</v>
+      </c>
+      <c r="F42" s="5">
+        <v>24</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="P42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>50</v>
+      </c>
+      <c r="R42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18">
+      <c r="B43" s="1">
+        <v>39</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="5">
+        <v>22</v>
+      </c>
+      <c r="F43" s="5">
+        <v>22</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>50</v>
+      </c>
+      <c r="R43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18">
+      <c r="B44" s="1">
+        <v>40</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="5">
+        <v>20</v>
+      </c>
+      <c r="F44" s="5">
+        <v>20</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1</v>
+      </c>
+      <c r="P44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>50</v>
+      </c>
+      <c r="R44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18">
+      <c r="B45" s="1">
+        <v>41</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="5">
+        <v>22</v>
+      </c>
+      <c r="F45" s="5">
+        <v>22</v>
+      </c>
+      <c r="H45" s="1">
+        <v>2</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>50</v>
+      </c>
+      <c r="R45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18">
+      <c r="B46" s="1">
+        <v>42</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="5">
+        <v>24</v>
+      </c>
+      <c r="F46" s="5">
+        <v>24</v>
+      </c>
+      <c r="H46" s="1">
+        <v>3</v>
+      </c>
+      <c r="P46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>50</v>
+      </c>
+      <c r="R46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18">
+      <c r="B47" s="1">
+        <v>43</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="5">
+        <v>22</v>
+      </c>
+      <c r="F47" s="5">
+        <v>22</v>
+      </c>
+      <c r="H47" s="1">
+        <v>4</v>
+      </c>
+      <c r="P47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>50</v>
+      </c>
+      <c r="R47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18">
+      <c r="B48" s="1">
+        <v>44</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="5">
+        <v>20</v>
+      </c>
+      <c r="F48" s="5">
+        <v>20</v>
+      </c>
+      <c r="H48" s="1">
+        <v>5</v>
+      </c>
+      <c r="P48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>50</v>
+      </c>
+      <c r="R48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18">
+      <c r="B49" s="1">
+        <v>45</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="5">
+        <v>22</v>
+      </c>
+      <c r="F49" s="5">
+        <v>22</v>
+      </c>
+      <c r="H49" s="1">
+        <v>6</v>
+      </c>
+      <c r="P49" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>50</v>
+      </c>
+      <c r="R49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18">
+      <c r="B50" s="1">
+        <v>46</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="5">
+        <v>24</v>
+      </c>
+      <c r="F50" s="5">
+        <v>24</v>
+      </c>
+      <c r="H50" s="1">
+        <v>7</v>
+      </c>
+      <c r="P50" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>50</v>
+      </c>
+      <c r="R50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18">
+      <c r="B51" s="1">
+        <v>47</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="5">
+        <v>22</v>
+      </c>
+      <c r="F51" s="5">
+        <v>22</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="P51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>50</v>
+      </c>
+      <c r="R51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18">
+      <c r="B52" s="1">
+        <v>48</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="5">
+        <v>20</v>
+      </c>
+      <c r="F52" s="5">
+        <v>20</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+      <c r="P52" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>50</v>
+      </c>
+      <c r="R52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:18">
+      <c r="B53" s="1">
+        <v>49</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="5">
+        <v>22</v>
+      </c>
+      <c r="F53" s="5">
+        <v>22</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1</v>
+      </c>
+      <c r="P53" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>50</v>
+      </c>
+      <c r="R53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18">
+      <c r="B54" s="1">
+        <v>50</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="5">
+        <v>24</v>
+      </c>
+      <c r="F54" s="5">
+        <v>24</v>
+      </c>
+      <c r="H54" s="1">
+        <v>2</v>
+      </c>
+      <c r="P54" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>50</v>
+      </c>
+      <c r="R54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:18">
+      <c r="B55" s="1">
+        <v>51</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="5">
+        <v>20</v>
+      </c>
+      <c r="F55" s="5">
+        <v>20</v>
+      </c>
+      <c r="H55" s="1">
+        <v>3</v>
+      </c>
+      <c r="P55" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>50</v>
+      </c>
+      <c r="R55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:18">
+      <c r="B56" s="1">
+        <v>52</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="5">
+        <v>22</v>
+      </c>
+      <c r="F56" s="5">
+        <v>22</v>
+      </c>
+      <c r="H56" s="1">
+        <v>4</v>
+      </c>
+      <c r="P56" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>50</v>
+      </c>
+      <c r="R56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:18">
+      <c r="B57" s="1">
+        <v>53</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="5">
+        <v>24</v>
+      </c>
+      <c r="F57" s="5">
+        <v>24</v>
+      </c>
+      <c r="H57" s="1">
+        <v>5</v>
+      </c>
+      <c r="P57" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>50</v>
+      </c>
+      <c r="R57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:18">
+      <c r="B58" s="1">
+        <v>54</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="5">
+        <v>22</v>
+      </c>
+      <c r="F58" s="5">
+        <v>22</v>
+      </c>
+      <c r="H58" s="1">
+        <v>6</v>
+      </c>
+      <c r="P58" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>50</v>
+      </c>
+      <c r="R58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:18">
+      <c r="B59" s="1">
+        <v>55</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="5">
+        <v>20</v>
+      </c>
+      <c r="F59" s="5">
+        <v>20</v>
+      </c>
+      <c r="H59" s="1">
+        <v>7</v>
+      </c>
+      <c r="P59" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>50</v>
+      </c>
+      <c r="R59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:18">
+      <c r="B60" s="1">
+        <v>56</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+      <c r="E60" s="5">
+        <v>22</v>
+      </c>
+      <c r="F60" s="5">
+        <v>22</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0</v>
+      </c>
+      <c r="P60" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>50</v>
+      </c>
+      <c r="R60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:18">
+      <c r="B61" s="1">
+        <v>57</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="5">
+        <v>24</v>
+      </c>
+      <c r="F61" s="5">
+        <v>24</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
+      <c r="P61" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>50</v>
+      </c>
+      <c r="R61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:18">
+      <c r="B62" s="1">
+        <v>58</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+      <c r="E62" s="5">
+        <v>22</v>
+      </c>
+      <c r="F62" s="5">
+        <v>22</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1</v>
+      </c>
+      <c r="P62" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>50</v>
+      </c>
+      <c r="R62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:18">
+      <c r="B63" s="1">
+        <v>59</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="5">
+        <v>20</v>
+      </c>
+      <c r="F63" s="5">
+        <v>20</v>
+      </c>
+      <c r="H63" s="1">
+        <v>2</v>
+      </c>
+      <c r="P63" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>50</v>
+      </c>
+      <c r="R63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:18">
+      <c r="B64" s="1">
+        <v>60</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0</v>
+      </c>
+      <c r="E64" s="5">
+        <v>22</v>
+      </c>
+      <c r="F64" s="5">
+        <v>22</v>
+      </c>
+      <c r="H64" s="1">
+        <v>3</v>
+      </c>
+      <c r="P64" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>50</v>
+      </c>
+      <c r="R64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18">
+      <c r="B65" s="1">
+        <v>61</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0</v>
+      </c>
+      <c r="E65" s="5">
+        <v>24</v>
+      </c>
+      <c r="F65" s="5">
+        <v>24</v>
+      </c>
+      <c r="H65" s="1">
+        <v>4</v>
+      </c>
+      <c r="P65" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>50</v>
+      </c>
+      <c r="R65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18">
+      <c r="B66" s="1">
+        <v>62</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0</v>
+      </c>
+      <c r="E66" s="5">
+        <v>22</v>
+      </c>
+      <c r="F66" s="5">
+        <v>22</v>
+      </c>
+      <c r="H66" s="1">
+        <v>5</v>
+      </c>
+      <c r="P66" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>50</v>
+      </c>
+      <c r="R66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18">
+      <c r="B67" s="1">
+        <v>63</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
+      <c r="E67" s="5">
+        <v>20</v>
+      </c>
+      <c r="F67" s="5">
+        <v>20</v>
+      </c>
+      <c r="H67" s="1">
+        <v>6</v>
+      </c>
+      <c r="P67" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>50</v>
+      </c>
+      <c r="R67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:18">
+      <c r="B68" s="1">
+        <v>64</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0</v>
+      </c>
+      <c r="E68" s="5">
+        <v>22</v>
+      </c>
+      <c r="F68" s="5">
+        <v>22</v>
+      </c>
+      <c r="H68" s="1">
+        <v>7</v>
+      </c>
+      <c r="P68" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>50</v>
+      </c>
+      <c r="R68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18">
+      <c r="B69" s="1">
+        <v>65</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0</v>
+      </c>
+      <c r="E69" s="5">
+        <v>24</v>
+      </c>
+      <c r="F69" s="5">
+        <v>24</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0</v>
+      </c>
+      <c r="P69" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>50</v>
+      </c>
+      <c r="R69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18">
+      <c r="B70" s="1">
+        <v>66</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+      <c r="E70" s="5">
+        <v>22</v>
+      </c>
+      <c r="F70" s="5">
+        <v>22</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0</v>
+      </c>
+      <c r="P70" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>50</v>
+      </c>
+      <c r="R70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18">
+      <c r="B71" s="1">
+        <v>67</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0</v>
+      </c>
+      <c r="E71" s="5">
+        <v>20</v>
+      </c>
+      <c r="F71" s="5">
+        <v>20</v>
+      </c>
+      <c r="H71" s="1">
+        <v>1</v>
+      </c>
+      <c r="P71" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>50</v>
+      </c>
+      <c r="R71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18">
+      <c r="B72" s="1">
+        <v>68</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0</v>
+      </c>
+      <c r="E72" s="5">
+        <v>22</v>
+      </c>
+      <c r="F72" s="5">
+        <v>22</v>
+      </c>
+      <c r="H72" s="1">
+        <v>2</v>
+      </c>
+      <c r="P72" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>50</v>
+      </c>
+      <c r="R72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18">
+      <c r="B73" s="1">
+        <v>69</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0</v>
+      </c>
+      <c r="E73" s="5">
+        <v>24</v>
+      </c>
+      <c r="F73" s="5">
+        <v>24</v>
+      </c>
+      <c r="H73" s="1">
+        <v>3</v>
+      </c>
+      <c r="P73" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>50</v>
+      </c>
+      <c r="R73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18">
+      <c r="B74" s="1">
+        <v>70</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0</v>
+      </c>
+      <c r="E74" s="5">
+        <v>20</v>
+      </c>
+      <c r="F74" s="5">
+        <v>20</v>
+      </c>
+      <c r="H74" s="1">
+        <v>4</v>
+      </c>
+      <c r="P74" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>50</v>
+      </c>
+      <c r="R74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18">
+      <c r="B75" s="1">
+        <v>71</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0</v>
+      </c>
+      <c r="E75" s="5">
+        <v>22</v>
+      </c>
+      <c r="F75" s="5">
+        <v>22</v>
+      </c>
+      <c r="H75" s="1">
+        <v>5</v>
+      </c>
+      <c r="P75" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="1">
+        <v>50</v>
+      </c>
+      <c r="R75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18">
+      <c r="B76" s="1">
+        <v>72</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0</v>
+      </c>
+      <c r="E76" s="5">
+        <v>24</v>
+      </c>
+      <c r="F76" s="5">
+        <v>24</v>
+      </c>
+      <c r="H76" s="1">
+        <v>6</v>
+      </c>
+      <c r="P76" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>50</v>
+      </c>
+      <c r="R76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18">
+      <c r="B77" s="1">
+        <v>73</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0</v>
+      </c>
+      <c r="E77" s="5">
+        <v>22</v>
+      </c>
+      <c r="F77" s="5">
+        <v>22</v>
+      </c>
+      <c r="H77" s="1">
+        <v>7</v>
+      </c>
+      <c r="P77" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>50</v>
+      </c>
+      <c r="R77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:18">
+      <c r="B78" s="1">
+        <v>74</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0</v>
+      </c>
+      <c r="E78" s="5">
+        <v>20</v>
+      </c>
+      <c r="F78" s="5">
+        <v>20</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0</v>
+      </c>
+      <c r="P78" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="1">
+        <v>50</v>
+      </c>
+      <c r="R78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18">
+      <c r="B79" s="1">
+        <v>75</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0</v>
+      </c>
+      <c r="E79" s="5">
+        <v>22</v>
+      </c>
+      <c r="F79" s="5">
+        <v>22</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0</v>
+      </c>
+      <c r="P79" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="1">
+        <v>50</v>
+      </c>
+      <c r="R79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:18">
+      <c r="B80" s="1">
+        <v>76</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0</v>
+      </c>
+      <c r="E80" s="5">
+        <v>24</v>
+      </c>
+      <c r="F80" s="5">
+        <v>24</v>
+      </c>
+      <c r="H80" s="1">
+        <v>1</v>
+      </c>
+      <c r="P80" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="1">
+        <v>50</v>
+      </c>
+      <c r="R80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:18">
+      <c r="B81" s="1">
+        <v>77</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0</v>
+      </c>
+      <c r="E81" s="5">
+        <v>22</v>
+      </c>
+      <c r="F81" s="5">
+        <v>22</v>
+      </c>
+      <c r="H81" s="1">
+        <v>2</v>
+      </c>
+      <c r="P81" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="1">
+        <v>50</v>
+      </c>
+      <c r="R81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:18">
+      <c r="B82" s="1">
+        <v>78</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0</v>
+      </c>
+      <c r="E82" s="5">
+        <v>20</v>
+      </c>
+      <c r="F82" s="5">
+        <v>20</v>
+      </c>
+      <c r="H82" s="1">
+        <v>3</v>
+      </c>
+      <c r="P82" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>50</v>
+      </c>
+      <c r="R82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:18">
+      <c r="B83" s="1">
+        <v>79</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0</v>
+      </c>
+      <c r="E83" s="5">
+        <v>22</v>
+      </c>
+      <c r="F83" s="5">
+        <v>22</v>
+      </c>
+      <c r="H83" s="1">
+        <v>4</v>
+      </c>
+      <c r="P83" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="1">
+        <v>50</v>
+      </c>
+      <c r="R83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:18">
+      <c r="B84" s="1">
+        <v>80</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0</v>
+      </c>
+      <c r="E84" s="5">
+        <v>24</v>
+      </c>
+      <c r="F84" s="5">
+        <v>24</v>
+      </c>
+      <c r="H84" s="1">
+        <v>5</v>
+      </c>
+      <c r="P84" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="1">
+        <v>50</v>
+      </c>
+      <c r="R84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:18">
+      <c r="B85" s="1">
+        <v>81</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0</v>
+      </c>
+      <c r="E85" s="5">
+        <v>22</v>
+      </c>
+      <c r="F85" s="5">
+        <v>22</v>
+      </c>
+      <c r="H85" s="1">
+        <v>6</v>
+      </c>
+      <c r="P85" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="1">
+        <v>50</v>
+      </c>
+      <c r="R85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:18">
+      <c r="B86" s="1">
+        <v>82</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0</v>
+      </c>
+      <c r="E86" s="5">
+        <v>20</v>
+      </c>
+      <c r="F86" s="5">
+        <v>20</v>
+      </c>
+      <c r="H86" s="1">
+        <v>7</v>
+      </c>
+      <c r="P86" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="1">
+        <v>50</v>
+      </c>
+      <c r="R86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:18">
+      <c r="B87" s="1">
+        <v>83</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0</v>
+      </c>
+      <c r="E87" s="5">
+        <v>22</v>
+      </c>
+      <c r="F87" s="5">
+        <v>22</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0</v>
+      </c>
+      <c r="P87" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="1">
+        <v>50</v>
+      </c>
+      <c r="R87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:18">
+      <c r="B88" s="1">
+        <v>84</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0</v>
+      </c>
+      <c r="E88" s="5">
+        <v>24</v>
+      </c>
+      <c r="F88" s="5">
+        <v>24</v>
+      </c>
+      <c r="H88" s="1">
+        <v>0</v>
+      </c>
+      <c r="P88" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="1">
+        <v>50</v>
+      </c>
+      <c r="R88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:18">
+      <c r="B89" s="1">
+        <v>85</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0</v>
+      </c>
+      <c r="E89" s="5">
+        <v>22</v>
+      </c>
+      <c r="F89" s="5">
+        <v>22</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0</v>
+      </c>
+      <c r="P89" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="1">
+        <v>50</v>
+      </c>
+      <c r="R89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:18">
+      <c r="B90" s="1">
+        <v>86</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0</v>
+      </c>
+      <c r="E90" s="5">
+        <v>20</v>
+      </c>
+      <c r="F90" s="5">
+        <v>20</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0</v>
+      </c>
+      <c r="P90" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="1">
+        <v>50</v>
+      </c>
+      <c r="R90" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:18">
+      <c r="B91" s="1">
+        <v>87</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0</v>
+      </c>
+      <c r="E91" s="5">
+        <v>22</v>
+      </c>
+      <c r="F91" s="5">
+        <v>22</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0</v>
+      </c>
+      <c r="P91" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="1">
+        <v>50</v>
+      </c>
+      <c r="R91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:18">
+      <c r="B92" s="1">
+        <v>88</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0</v>
+      </c>
+      <c r="E92" s="5">
+        <v>24</v>
+      </c>
+      <c r="F92" s="5">
+        <v>24</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0</v>
+      </c>
+      <c r="P92" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="1">
+        <v>50</v>
+      </c>
+      <c r="R92" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I16:J16 D1048575:D1048576 H16:H23 H5:J15"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I16:J16 H24 H33 H42 H51 H60 H69 H78 H87 D1048575:D1048576 H16:H23 H25:H32 H34:H41 H43:H50 H52:H59 H61:H68 H70:H77 H79:H86 H88:H92 H93:H95 H5:J15"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/DesignerConfigs/Datas/Level.xlsx
+++ b/DesignerConfigs/Datas/Level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
@@ -1563,11 +1563,11 @@
   <dimension ref="A1:S92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="J5" s="6"/>
       <c r="P5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="1">
         <v>10</v>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="1">
         <v>20</v>
@@ -2084,7 +2084,7 @@
         <v>7</v>
       </c>
       <c r="P13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="1">
         <v>50</v>
@@ -2207,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="P17" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="1">
         <v>50</v>
@@ -4399,7 +4399,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I16:J16 H24 H33 H42 H51 H60 H69 H78 H87 D1048575:D1048576 H16:H23 H25:H32 H34:H41 H43:H50 H52:H59 H61:H68 H70:H77 H79:H86 H88:H92 H93:H95 H5:J15"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I16:J16 D1048575:D1048576 H16:H95 H5:J15"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/DesignerConfigs/Datas/Level.xlsx
+++ b/DesignerConfigs/Datas/Level.xlsx
@@ -509,12 +509,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1563,11 +1563,11 @@
   <dimension ref="A1:S92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N12" sqref="N12"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1864,10 +1864,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="1">
@@ -2081,7 +2081,7 @@
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>1</v>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P14" s="1">
         <v>0</v>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>2</v>
@@ -2413,7 +2413,7 @@
         <v>20</v>
       </c>
       <c r="H24" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P24" s="1">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>24</v>
       </c>
       <c r="H25" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P25" s="1">
         <v>0</v>
